--- a/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
@@ -1298,7 +1298,7 @@
     <t>http://sas.fr/fhir/StructureDefinition/FrAppointmentSAS</t>
   </si>
   <si>
-    <t>2024-06-17T09:35:36+00:00</t>
+    <t>2024-06-19T07:13:44+00:00</t>
   </si>
   <si>
     <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>

--- a/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
@@ -1298,7 +1298,7 @@
     <t>http://sas.fr/fhir/StructureDefinition/FrAppointmentSAS</t>
   </si>
   <si>
-    <t>2024-06-19T07:13:44+00:00</t>
+    <t>2024-06-19T07:35:42+00:00</t>
   </si>
   <si>
     <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>

--- a/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
@@ -1298,7 +1298,7 @@
     <t>http://sas.fr/fhir/StructureDefinition/FrAppointmentSAS</t>
   </si>
   <si>
-    <t>2024-06-19T07:35:42+00:00</t>
+    <t>2024-06-19T09:48:35+00:00</t>
   </si>
   <si>
     <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>

--- a/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
+++ b/feature/prepare-use-cases-narratives/ig/all-profiles.xlsx
@@ -1298,7 +1298,7 @@
     <t>http://sas.fr/fhir/StructureDefinition/FrAppointmentSAS</t>
   </si>
   <si>
-    <t>2024-06-19T09:48:35+00:00</t>
+    <t>2024-06-19T13:57:53+00:00</t>
   </si>
   <si>
     <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>
